--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepGitHubJavier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEA0D08-535E-4000-A159-7B20ED2A9EFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F9D6B-A996-4578-8A12-0907A9DC96DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2185,11 +2185,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O427"/>
+  <dimension ref="A1:O432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E426" sqref="E1:E426"/>
+      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E429" sqref="E429:E432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6700,7 +6700,7 @@
         <v>44190</v>
       </c>
       <c r="E388" s="4">
-        <f t="shared" ref="E388:E426" si="6">SUM(B388,C388,D388)</f>
+        <f t="shared" ref="E388:E432" si="6">SUM(B388,C388,D388)</f>
         <v>0</v>
       </c>
     </row>
@@ -7085,6 +7085,85 @@
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44229</v>
+      </c>
+      <c r="B427" s="3">
+        <v>4.6967592592592589E-2</v>
+      </c>
+      <c r="D427" s="3">
+        <v>5.2430555555555557E-2</v>
+      </c>
+      <c r="E427" s="4">
+        <f>SUM(B427,B431,D427)</f>
+        <v>0.14277777777777778</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B428" s="3">
+        <v>4.6944444444444448E-2</v>
+      </c>
+      <c r="D428" s="3">
+        <v>3.7430555555555557E-2</v>
+      </c>
+      <c r="E428" s="4">
+        <f t="shared" si="6"/>
+        <v>8.4375000000000006E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B429" s="3">
+        <v>5.0173611111111106E-2</v>
+      </c>
+      <c r="D429" s="3">
+        <v>4.3124999999999997E-2</v>
+      </c>
+      <c r="E429" s="4">
+        <f>SUM(B429,D431,D429)</f>
+        <v>0.1232523148148148</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B430" s="3">
+        <v>5.3530092592592594E-2</v>
+      </c>
+      <c r="D430" s="3">
+        <v>4.6967592592592589E-2</v>
+      </c>
+      <c r="E430" s="4">
+        <f t="shared" ref="E430:E432" si="7">SUM(B430,D432,D430)</f>
+        <v>0.10049768518518518</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B431" s="3">
+        <v>4.3379629629629629E-2</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2.9953703703703705E-2</v>
+      </c>
+      <c r="E431" s="4">
+        <f t="shared" si="7"/>
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>44234</v>
+      </c>
+      <c r="E432" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepGitHubJavier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F9D6B-A996-4578-8A12-0907A9DC96DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0019573-D67A-4955-BA35-B5D676888F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2185,11 +2185,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O432"/>
+  <dimension ref="A1:O439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E429" sqref="E429:E432"/>
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E419" sqref="E419:E439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6700,7 +6700,7 @@
         <v>44190</v>
       </c>
       <c r="E388" s="4">
-        <f t="shared" ref="E388:E432" si="6">SUM(B388,C388,D388)</f>
+        <f t="shared" ref="E388:E439" si="6">SUM(B388,C388,D388)</f>
         <v>0</v>
       </c>
     </row>
@@ -7093,8 +7093,8 @@
         <v>5.2430555555555557E-2</v>
       </c>
       <c r="E427" s="4">
-        <f>SUM(B427,B431,D427)</f>
-        <v>0.14277777777777778</v>
+        <f t="shared" si="6"/>
+        <v>9.9398148148148152E-2</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -7123,8 +7123,8 @@
         <v>4.3124999999999997E-2</v>
       </c>
       <c r="E429" s="4">
-        <f>SUM(B429,D431,D429)</f>
-        <v>0.1232523148148148</v>
+        <f t="shared" si="6"/>
+        <v>9.3298611111111096E-2</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -7138,7 +7138,7 @@
         <v>4.6967592592592589E-2</v>
       </c>
       <c r="E430" s="4">
-        <f t="shared" ref="E430:E432" si="7">SUM(B430,D432,D430)</f>
+        <f t="shared" si="6"/>
         <v>0.10049768518518518</v>
       </c>
     </row>
@@ -7153,7 +7153,7 @@
         <v>2.9953703703703705E-2</v>
       </c>
       <c r="E431" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.3333333333333334E-2</v>
       </c>
     </row>
@@ -7161,8 +7161,98 @@
       <c r="A432" s="1">
         <v>44234</v>
       </c>
+      <c r="B432" s="3">
+        <v>4.0486111111111105E-2</v>
+      </c>
       <c r="E432" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
+        <v>4.0486111111111105E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B433" s="3">
+        <v>4.760416666666667E-2</v>
+      </c>
+      <c r="D433" s="3">
+        <v>4.8136574074074075E-2</v>
+      </c>
+      <c r="E433" s="4">
+        <f t="shared" si="6"/>
+        <v>9.5740740740740737E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B434" s="3">
+        <v>4.8842592592592597E-2</v>
+      </c>
+      <c r="D434" s="3">
+        <v>4.1458333333333333E-2</v>
+      </c>
+      <c r="E434" s="4">
+        <f t="shared" si="6"/>
+        <v>9.0300925925925923E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B435" s="3">
+        <v>3.453703703703704E-2</v>
+      </c>
+      <c r="D435" s="3">
+        <v>5.7766203703703702E-2</v>
+      </c>
+      <c r="E435" s="4">
+        <f t="shared" si="6"/>
+        <v>9.2303240740740741E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B436" s="3">
+        <v>3.5868055555555556E-2</v>
+      </c>
+      <c r="D436" s="3">
+        <v>3.453703703703704E-2</v>
+      </c>
+      <c r="E436" s="4">
+        <f t="shared" si="6"/>
+        <v>7.0405092592592589E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>44239</v>
+      </c>
+      <c r="E437" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>44240</v>
+      </c>
+      <c r="E438" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>44241</v>
+      </c>
+      <c r="E439" s="4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepGitHubJavier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\proyectos\GitHubDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0019573-D67A-4955-BA35-B5D676888F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version1" sheetId="1" r:id="rId1"/>
     <sheet name="Version2" sheetId="2" r:id="rId2"/>
     <sheet name="Version3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -384,20 +383,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43804</v>
       </c>
@@ -444,7 +443,7 @@
         <v>0.15277777777777779</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43805</v>
       </c>
@@ -456,7 +455,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43806</v>
       </c>
@@ -465,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43807</v>
       </c>
@@ -477,7 +476,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43808</v>
       </c>
@@ -503,7 +502,7 @@
         <v>0.14652777777777776</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43809</v>
       </c>
@@ -521,7 +520,7 @@
         <v>9.722222222222221E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43810</v>
       </c>
@@ -548,7 +547,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43811</v>
       </c>
@@ -569,7 +568,7 @@
         <v>0.16111111111111115</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43812</v>
       </c>
@@ -587,7 +586,7 @@
         <v>0.11388888888888887</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43813</v>
       </c>
@@ -599,7 +598,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43814</v>
       </c>
@@ -611,7 +610,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43815</v>
       </c>
@@ -635,7 +634,7 @@
         <v>0.18590277777777778</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43816</v>
       </c>
@@ -653,7 +652,7 @@
         <v>0.10722222222222222</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43817</v>
       </c>
@@ -674,7 +673,7 @@
         <v>0.14688657407407407</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43818</v>
       </c>
@@ -692,7 +691,7 @@
         <v>9.4618055555555552E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43819</v>
       </c>
@@ -716,7 +715,7 @@
         <v>0.14828703703703705</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43820</v>
       </c>
@@ -728,7 +727,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43821</v>
       </c>
@@ -740,7 +739,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43822</v>
       </c>
@@ -759,7 +758,7 @@
         <v>0.15972222222222221</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43823</v>
       </c>
@@ -768,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43824</v>
       </c>
@@ -777,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43825</v>
       </c>
@@ -795,7 +794,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43826</v>
       </c>
@@ -816,7 +815,7 @@
         <v>0.15883101851851852</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43827</v>
       </c>
@@ -825,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43828</v>
       </c>
@@ -837,7 +836,7 @@
         <v>3.6111111111111115E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43829</v>
       </c>
@@ -867,7 +866,7 @@
         <v>0.24414351851851851</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43830</v>
       </c>
@@ -879,7 +878,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43831</v>
       </c>
@@ -888,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43832</v>
       </c>
@@ -909,7 +908,7 @@
         <v>9.0208333333333335E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43833</v>
       </c>
@@ -930,7 +929,7 @@
         <v>0.19513888888888889</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43834</v>
       </c>
@@ -939,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43835</v>
       </c>
@@ -948,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43836</v>
       </c>
@@ -975,7 +974,7 @@
         <v>0.30542824074074076</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43837</v>
       </c>
@@ -999,7 +998,7 @@
         <v>0.27118055555555554</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43838</v>
       </c>
@@ -1024,20 +1023,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43804</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43805</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43806</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43807</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43808</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43809</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43810</v>
       </c>
@@ -1298,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43811</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43812</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43813</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43814</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43815</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43816</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43817</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43818</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43819</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43820</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43821</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43822</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43823</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43824</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43825</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43826</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43827</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43828</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43829</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43830</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43831</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43832</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43833</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43834</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43835</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43836</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43837</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43838</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I37" s="2"/>
     </row>
   </sheetData>
@@ -2184,21 +2183,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O439"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E419" sqref="E419:E439"/>
+      <selection pane="bottomLeft" activeCell="E436" sqref="E436"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43804</v>
       </c>
@@ -2234,7 +2233,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43805</v>
       </c>
@@ -2247,7 +2246,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43806</v>
       </c>
@@ -2257,7 +2256,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43807</v>
       </c>
@@ -2270,7 +2269,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43808</v>
       </c>
@@ -2292,7 +2291,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43809</v>
       </c>
@@ -2311,7 +2310,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43810</v>
       </c>
@@ -2332,7 +2331,7 @@
       <c r="G8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43811</v>
       </c>
@@ -2351,7 +2350,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43812</v>
       </c>
@@ -2370,7 +2369,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43813</v>
       </c>
@@ -2383,7 +2382,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43814</v>
       </c>
@@ -2402,7 +2401,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43815</v>
       </c>
@@ -2422,7 +2421,7 @@
       <c r="F13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43816</v>
       </c>
@@ -2441,7 +2440,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43817</v>
       </c>
@@ -2460,7 +2459,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43818</v>
       </c>
@@ -2479,7 +2478,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43819</v>
       </c>
@@ -2499,7 +2498,7 @@
       <c r="F17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43820</v>
       </c>
@@ -2512,7 +2511,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43821</v>
       </c>
@@ -2525,7 +2524,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43822</v>
       </c>
@@ -2544,7 +2543,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43823</v>
       </c>
@@ -2554,7 +2553,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43824</v>
       </c>
@@ -2564,7 +2563,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43825</v>
       </c>
@@ -2583,7 +2582,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43826</v>
       </c>
@@ -2602,7 +2601,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43827</v>
       </c>
@@ -2612,7 +2611,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43828</v>
       </c>
@@ -2625,7 +2624,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43829</v>
       </c>
@@ -2647,7 +2646,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43830</v>
       </c>
@@ -2660,7 +2659,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43831</v>
       </c>
@@ -2670,7 +2669,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43832</v>
       </c>
@@ -2686,7 +2685,7 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43833</v>
       </c>
@@ -2705,7 +2704,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43834</v>
       </c>
@@ -2715,7 +2714,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43835</v>
       </c>
@@ -2725,7 +2724,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43836</v>
       </c>
@@ -2746,7 +2745,7 @@
       <c r="G34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43837</v>
       </c>
@@ -2766,7 +2765,7 @@
       <c r="F35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43838</v>
       </c>
@@ -2786,7 +2785,7 @@
       <c r="G36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43839</v>
       </c>
@@ -2806,7 +2805,7 @@
       <c r="G37" s="4"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43840</v>
       </c>
@@ -2826,7 +2825,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43841</v>
       </c>
@@ -2840,7 +2839,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43842</v>
       </c>
@@ -2854,7 +2853,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43843</v>
       </c>
@@ -2876,7 +2875,7 @@
       <c r="H41" s="3"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43844</v>
       </c>
@@ -2902,7 +2901,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43845</v>
       </c>
@@ -2924,7 +2923,7 @@
       <c r="H43" s="4"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43846</v>
       </c>
@@ -2942,7 +2941,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43847</v>
       </c>
@@ -2960,7 +2959,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43848</v>
       </c>
@@ -2975,7 +2974,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43849</v>
       </c>
@@ -2986,7 +2985,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43850</v>
       </c>
@@ -3003,7 +3002,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43851</v>
       </c>
@@ -3023,7 +3022,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43852</v>
       </c>
@@ -3042,7 +3041,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43853</v>
       </c>
@@ -3061,7 +3060,7 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43854</v>
       </c>
@@ -3077,7 +3076,7 @@
       </c>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43855</v>
       </c>
@@ -3091,7 +3090,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43856</v>
       </c>
@@ -3105,7 +3104,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43857</v>
       </c>
@@ -3125,7 +3124,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43858</v>
       </c>
@@ -3144,7 +3143,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43859</v>
       </c>
@@ -3164,7 +3163,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43860</v>
       </c>
@@ -3184,7 +3183,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43861</v>
       </c>
@@ -3205,7 +3204,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43862</v>
       </c>
@@ -3220,7 +3219,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43863</v>
       </c>
@@ -3234,7 +3233,7 @@
       <c r="F61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43864</v>
       </c>
@@ -3247,7 +3246,7 @@
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43865</v>
       </c>
@@ -3266,7 +3265,7 @@
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43866</v>
       </c>
@@ -3283,7 +3282,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43867</v>
       </c>
@@ -3303,7 +3302,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43868</v>
       </c>
@@ -3319,7 +3318,7 @@
       </c>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43869</v>
       </c>
@@ -3332,7 +3331,7 @@
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43870</v>
       </c>
@@ -3345,7 +3344,7 @@
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43871</v>
       </c>
@@ -3364,7 +3363,7 @@
       </c>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43872</v>
       </c>
@@ -3383,7 +3382,7 @@
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43873</v>
       </c>
@@ -3399,7 +3398,7 @@
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43874</v>
       </c>
@@ -3415,7 +3414,7 @@
       </c>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43875</v>
       </c>
@@ -3428,7 +3427,7 @@
       </c>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43876</v>
       </c>
@@ -3441,7 +3440,7 @@
       </c>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43877</v>
       </c>
@@ -3454,7 +3453,7 @@
       </c>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43878</v>
       </c>
@@ -3470,7 +3469,7 @@
       </c>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43879</v>
       </c>
@@ -3489,7 +3488,7 @@
       </c>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43880</v>
       </c>
@@ -3508,7 +3507,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43881</v>
       </c>
@@ -3527,7 +3526,7 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43882</v>
       </c>
@@ -3546,7 +3545,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43883</v>
       </c>
@@ -3559,7 +3558,7 @@
       </c>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43884</v>
       </c>
@@ -3572,7 +3571,7 @@
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43885</v>
       </c>
@@ -3591,7 +3590,7 @@
       </c>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43886</v>
       </c>
@@ -3610,7 +3609,7 @@
       </c>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43887</v>
       </c>
@@ -3629,7 +3628,7 @@
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43888</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>0.12498842592592592</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43889</v>
       </c>
@@ -3663,7 +3662,7 @@
       </c>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43890</v>
       </c>
@@ -3676,7 +3675,7 @@
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43891</v>
       </c>
@@ -3689,7 +3688,7 @@
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43892</v>
       </c>
@@ -3705,7 +3704,7 @@
       </c>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43893</v>
       </c>
@@ -3724,7 +3723,7 @@
       </c>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43894</v>
       </c>
@@ -3740,7 +3739,7 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43895</v>
       </c>
@@ -3756,7 +3755,7 @@
       </c>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43896</v>
       </c>
@@ -3776,7 +3775,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43897</v>
       </c>
@@ -3790,7 +3789,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43898</v>
       </c>
@@ -3803,7 +3802,7 @@
       </c>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43899</v>
       </c>
@@ -3822,7 +3821,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43900</v>
       </c>
@@ -3841,7 +3840,7 @@
       </c>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43901</v>
       </c>
@@ -3860,7 +3859,7 @@
       </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43902</v>
       </c>
@@ -3876,7 +3875,7 @@
       </c>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43903</v>
       </c>
@@ -3896,7 +3895,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43904</v>
       </c>
@@ -3910,7 +3909,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43905</v>
       </c>
@@ -3924,7 +3923,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43906</v>
       </c>
@@ -3937,7 +3936,7 @@
       </c>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43907</v>
       </c>
@@ -3956,7 +3955,7 @@
       </c>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43908</v>
       </c>
@@ -3975,7 +3974,7 @@
       </c>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43909</v>
       </c>
@@ -3995,7 +3994,7 @@
       <c r="F107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43910</v>
       </c>
@@ -4016,7 +4015,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43911</v>
       </c>
@@ -4034,7 +4033,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43912</v>
       </c>
@@ -4047,7 +4046,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43913</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>4.2592592592592592E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43914</v>
       </c>
@@ -4073,7 +4072,7 @@
       <c r="F112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43915</v>
       </c>
@@ -4086,7 +4085,7 @@
       </c>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43916</v>
       </c>
@@ -4099,7 +4098,7 @@
       </c>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43917</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="F115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43918</v>
       </c>
@@ -4127,7 +4126,7 @@
       <c r="F116" s="3"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43919</v>
       </c>
@@ -4143,7 +4142,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43920</v>
       </c>
@@ -4159,7 +4158,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43921</v>
       </c>
@@ -4175,7 +4174,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43922</v>
       </c>
@@ -4188,7 +4187,7 @@
       </c>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43923</v>
       </c>
@@ -4202,7 +4201,7 @@
       <c r="G121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43924</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="G122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43925</v>
       </c>
@@ -4230,7 +4229,7 @@
       <c r="G123" s="4"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43926</v>
       </c>
@@ -4243,7 +4242,7 @@
       </c>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43927</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>9.3483796296296301E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43928</v>
       </c>
@@ -4271,7 +4270,7 @@
       <c r="I126" s="3"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43929</v>
       </c>
@@ -4287,7 +4286,7 @@
       <c r="I127" s="3"/>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43930</v>
       </c>
@@ -4303,7 +4302,7 @@
       <c r="I128" s="4"/>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43931</v>
       </c>
@@ -4316,7 +4315,7 @@
       </c>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43932</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>4.3067129629629629E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43933</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>6.9664351851851852E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43934</v>
       </c>
@@ -4355,7 +4354,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43935</v>
       </c>
@@ -4370,7 +4369,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43936</v>
       </c>
@@ -4385,7 +4384,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43937</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>4.6481481481481485E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43938</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>1.4537037037037038E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43939</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>5.4745370370370368E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43940</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>5.7372685185185186E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43941</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>6.7812499999999998E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43942</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>4.3263888888888886E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43943</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43944</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43945</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>6.8553240740740748E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43946</v>
       </c>
@@ -4499,7 +4498,7 @@
         <v>4.2407407407407401E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43947</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43948</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>4.3749999999999997E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43949</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43950</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43951</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43952</v>
       </c>
@@ -4559,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43953</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43954</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43955</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43956</v>
       </c>
@@ -4595,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43957</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43958</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43959</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43960</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43961</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43962</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43963</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43964</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43965</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43966</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43967</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43968</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43969</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43970</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43971</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43972</v>
       </c>
@@ -4742,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43973</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43974</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43975</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43976</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43977</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43978</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43979</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43980</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43981</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43982</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43983</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43984</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43985</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43986</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43987</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43988</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43989</v>
       </c>
@@ -4895,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43990</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43991</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43992</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43993</v>
       </c>
@@ -4931,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43994</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43995</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43996</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43997</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43998</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43999</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44000</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44001</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44002</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44003</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44004</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44005</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44006</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44007</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44008</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44009</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44010</v>
       </c>
@@ -5084,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44011</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44012</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44013</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44014</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44015</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44016</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44017</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44018</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44019</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44020</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44021</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44022</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44023</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44024</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44025</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44026</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44027</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44028</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44029</v>
       </c>
@@ -5255,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44030</v>
       </c>
@@ -5264,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44031</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44032</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44033</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44034</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44035</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44036</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44037</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44038</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44039</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44040</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44041</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44042</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44043</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44044</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44045</v>
       </c>
@@ -5399,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44046</v>
       </c>
@@ -5408,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44047</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44048</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44049</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44050</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44051</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44052</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44053</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44054</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44055</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44056</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44057</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44058</v>
       </c>
@@ -5516,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44059</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44060</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44061</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44062</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44063</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44064</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44065</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44066</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44067</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44068</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44069</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44070</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44071</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44072</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44073</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44074</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44075</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44076</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44077</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44078</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44079</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44080</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44081</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44082</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44083</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44084</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44085</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44086</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44087</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44088</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44089</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44090</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44091</v>
       </c>
@@ -5813,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44092</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44093</v>
       </c>
@@ -5831,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44094</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44095</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44096</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44097</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44098</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44099</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44100</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44101</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44102</v>
       </c>
@@ -5912,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44103</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44104</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44105</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44106</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44107</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44108</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44109</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44110</v>
       </c>
@@ -5984,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44111</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44112</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44113</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44114</v>
       </c>
@@ -6020,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44115</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44116</v>
       </c>
@@ -6038,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44117</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44118</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44119</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44120</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44121</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44122</v>
       </c>
@@ -6092,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44123</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44124</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44125</v>
       </c>
@@ -6119,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44126</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44127</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44128</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44129</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44130</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44131</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44132</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44133</v>
       </c>
@@ -6191,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44134</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44135</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44136</v>
       </c>
@@ -6218,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44137</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44138</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44139</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44140</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44141</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44142</v>
       </c>
@@ -6272,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44143</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44144</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44145</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44146</v>
       </c>
@@ -6308,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44147</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44148</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44149</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44150</v>
       </c>
@@ -6344,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44151</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44152</v>
       </c>
@@ -6362,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44153</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44154</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44155</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44156</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44157</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44158</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44159</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44160</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44161</v>
       </c>
@@ -6443,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44162</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44163</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44164</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44165</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44166</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44167</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44168</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44169</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44170</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44171</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44172</v>
       </c>
@@ -6542,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44173</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44174</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44175</v>
       </c>
@@ -6569,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44176</v>
       </c>
@@ -6578,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44177</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44178</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44179</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44180</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44181</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44182</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44183</v>
       </c>
@@ -6641,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44184</v>
       </c>
@@ -6650,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44185</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44186</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44187</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44188</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44189</v>
       </c>
@@ -6695,16 +6694,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44190</v>
       </c>
       <c r="E388" s="4">
-        <f t="shared" ref="E388:E439" si="6">SUM(B388,C388,D388)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E388:E445" si="6">SUM(B388,C388,D388)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44191</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44192</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44193</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44194</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44195</v>
       </c>
@@ -6749,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44196</v>
       </c>
@@ -6758,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44197</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44198</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44199</v>
       </c>
@@ -6785,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44200</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44201</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44202</v>
       </c>
@@ -6812,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44203</v>
       </c>
@@ -6821,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44204</v>
       </c>
@@ -6830,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44205</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44206</v>
       </c>
@@ -6848,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44207</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44208</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44209</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44210</v>
       </c>
@@ -6884,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44211</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44212</v>
       </c>
@@ -6902,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44213</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44214</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44215</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44216</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44217</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44218</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44219</v>
       </c>
@@ -6965,16 +6964,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44220</v>
       </c>
       <c r="E418" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+        <f>SUM(B418,C418,D418)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44221</v>
       </c>
@@ -6989,7 +6988,7 @@
         <v>4.3483796296296298E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44222</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>0.11393518518518519</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44223</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>0.11964120370370371</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44224</v>
       </c>
@@ -7031,7 +7030,7 @@
         <v>5.6759259259259259E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44225</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>4.5752314814814815E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44226</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>4.4351851851851858E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44227</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>5.0393518518518511E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44228</v>
       </c>
@@ -7082,7 +7081,7 @@
         <v>8.5312499999999999E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44229</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>9.9398148148148152E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44230</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>8.4375000000000006E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44231</v>
       </c>
@@ -7127,7 +7126,7 @@
         <v>9.3298611111111096E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44232</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>0.10049768518518518</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44233</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>7.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44234</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>4.0486111111111105E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44235</v>
       </c>
@@ -7184,7 +7183,7 @@
         <v>9.5740740740740737E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44236</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>9.0300925925925923E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44237</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>9.2303240740740741E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44238</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>7.0405092592592589E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44239</v>
       </c>
@@ -7238,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44240</v>
       </c>
@@ -7247,11 +7246,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44241</v>
       </c>
       <c r="E439" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B440" s="3">
+        <v>4.9085648148148149E-2</v>
+      </c>
+      <c r="E440" s="4">
+        <f t="shared" si="6"/>
+        <v>4.9085648148148149E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>44243</v>
+      </c>
+      <c r="E441" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>44244</v>
+      </c>
+      <c r="E442" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>44245</v>
+      </c>
+      <c r="E443" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>44246</v>
+      </c>
+      <c r="E444" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>44247</v>
+      </c>
+      <c r="E445" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E436" sqref="E436"/>
+      <selection pane="bottomLeft" activeCell="B443" sqref="B443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7262,27 +7262,39 @@
       <c r="B440" s="3">
         <v>4.9085648148148149E-2</v>
       </c>
+      <c r="D440" s="3">
+        <v>4.6817129629629632E-2</v>
+      </c>
       <c r="E440" s="4">
         <f t="shared" si="6"/>
-        <v>4.9085648148148149E-2</v>
+        <v>9.5902777777777781E-2</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44243</v>
       </c>
+      <c r="B441" s="3">
+        <v>4.7442129629629626E-2</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2.5289351851851851E-2</v>
+      </c>
       <c r="E441" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.273148148148148E-2</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44244</v>
       </c>
+      <c r="B442" s="3">
+        <v>3.3483796296296296E-2</v>
+      </c>
       <c r="E442" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.3483796296296296E-2</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,8 +2187,8 @@
   <dimension ref="A1:O445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B443" sqref="B443"/>
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D444" sqref="D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7292,18 +7292,27 @@
       <c r="B442" s="3">
         <v>3.3483796296296296E-2</v>
       </c>
+      <c r="D442" s="3">
+        <v>4.4247685185185182E-2</v>
+      </c>
       <c r="E442" s="4">
         <f t="shared" si="6"/>
-        <v>3.3483796296296296E-2</v>
+        <v>7.7731481481481485E-2</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44245</v>
       </c>
+      <c r="B443" s="3">
+        <v>4.3263888888888886E-2</v>
+      </c>
+      <c r="D443" s="3">
+        <v>4.3819444444444446E-2</v>
+      </c>
       <c r="E443" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.7083333333333332E-2</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D444" sqref="D444"/>
+      <selection pane="bottomLeft" activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7319,9 +7319,15 @@
       <c r="A444" s="1">
         <v>44246</v>
       </c>
+      <c r="B444" s="3">
+        <v>4.1701388888888885E-2</v>
+      </c>
+      <c r="D444" s="3">
+        <v>4.2164351851851856E-2</v>
+      </c>
       <c r="E444" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.3865740740740741E-2</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2184,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O445"/>
+  <dimension ref="A1:O455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D445" sqref="D445"/>
+      <selection pane="bottomLeft" activeCell="D448" sqref="D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6699,7 +6699,7 @@
         <v>44190</v>
       </c>
       <c r="E388" s="4">
-        <f t="shared" ref="E388:E445" si="6">SUM(B388,C388,D388)</f>
+        <f t="shared" ref="E388:E451" si="6">SUM(B388,C388,D388)</f>
         <v>0</v>
       </c>
     </row>
@@ -7338,6 +7338,90 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>44248</v>
+      </c>
+      <c r="E446" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B447" s="3">
+        <v>4.9236111111111112E-2</v>
+      </c>
+      <c r="D447" s="3">
+        <v>4.731481481481481E-2</v>
+      </c>
+      <c r="E447" s="4">
+        <f t="shared" si="6"/>
+        <v>9.6550925925925929E-2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>44250</v>
+      </c>
+      <c r="E448" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>44251</v>
+      </c>
+      <c r="E449" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>44252</v>
+      </c>
+      <c r="E450" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>44253</v>
+      </c>
+      <c r="E451" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>44254</v>
+      </c>
+      <c r="E452" s="4">
+        <f t="shared" ref="E452:E455" si="7">SUM(B452,C452,D452)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>44255</v>
+      </c>
+      <c r="E453" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E454" s="4"/>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E455" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D448" sqref="D448"/>
+      <selection pane="bottomLeft" activeCell="E447" sqref="E447:E453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7367,9 +7367,15 @@
       <c r="A448" s="1">
         <v>44250</v>
       </c>
+      <c r="B448" s="3">
+        <v>5.0138888888888893E-2</v>
+      </c>
+      <c r="D448" s="3">
+        <v>4.189814814814815E-2</v>
+      </c>
       <c r="E448" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.2037037037037042E-2</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -7404,7 +7410,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E455" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E453" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E447" sqref="E447:E453"/>
+      <selection pane="bottomLeft" activeCell="D451" sqref="D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7382,18 +7382,36 @@
       <c r="A449" s="1">
         <v>44251</v>
       </c>
+      <c r="B449" s="3">
+        <v>4.4675925925925924E-2</v>
+      </c>
+      <c r="C449" s="3">
+        <v>4.9722222222222223E-2</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2.9872685185185183E-2</v>
+      </c>
       <c r="E449" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.12427083333333333</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>44252</v>
       </c>
+      <c r="B450" s="3">
+        <v>3.875E-2</v>
+      </c>
+      <c r="C450" s="3">
+        <v>3.0740740740740739E-2</v>
+      </c>
+      <c r="D450" s="3">
+        <v>3.0439814814814819E-2</v>
+      </c>
       <c r="E450" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.9930555555555564E-2</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D451" sqref="D451"/>
+      <selection pane="bottomLeft" activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7418,9 +7418,15 @@
       <c r="A451" s="1">
         <v>44253</v>
       </c>
+      <c r="B451" s="3">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="D451" s="3">
+        <v>3.7928240740740742E-2</v>
+      </c>
       <c r="E451" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.4733796296296298E-2</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2184,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O455"/>
+  <dimension ref="A1:O460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D452" sqref="D452"/>
+      <selection pane="bottomLeft" activeCell="E454" sqref="E454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7434,7 +7434,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E453" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E460" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>
@@ -7448,10 +7448,73 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E454" s="4"/>
+      <c r="A454" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B454" s="3">
+        <v>4.0034722222222222E-2</v>
+      </c>
+      <c r="C454" s="3">
+        <v>3.681712962962963E-2</v>
+      </c>
+      <c r="E454" s="4">
+        <f t="shared" si="7"/>
+        <v>7.6851851851851852E-2</v>
+      </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E455" s="4"/>
+      <c r="A455" s="1">
+        <v>44257</v>
+      </c>
+      <c r="E455" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>44258</v>
+      </c>
+      <c r="E456" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>44259</v>
+      </c>
+      <c r="E457" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>44260</v>
+      </c>
+      <c r="E458" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>44261</v>
+      </c>
+      <c r="E459" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>44262</v>
+      </c>
+      <c r="E460" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E454" sqref="E454"/>
+      <selection pane="bottomLeft" activeCell="E454" sqref="E454:E460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7466,9 +7466,18 @@
       <c r="A455" s="1">
         <v>44257</v>
       </c>
+      <c r="B455" s="3">
+        <v>4.9513888888888892E-2</v>
+      </c>
+      <c r="C455" s="3">
+        <v>4.6273148148148147E-2</v>
+      </c>
+      <c r="D455" s="3">
+        <v>3.8680555555555558E-2</v>
+      </c>
       <c r="E455" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.13446759259259258</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E454" sqref="E454:E460"/>
+      <selection pane="bottomLeft" activeCell="D457" sqref="D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7484,9 +7484,15 @@
       <c r="A456" s="1">
         <v>44258</v>
       </c>
+      <c r="B456" s="3">
+        <v>3.5277777777777776E-2</v>
+      </c>
+      <c r="D456" s="3">
+        <v>3.6273148148148145E-2</v>
+      </c>
       <c r="E456" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.1550925925925921E-2</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D457" sqref="D457"/>
+      <selection pane="bottomLeft" activeCell="D458" sqref="D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7499,9 +7499,18 @@
       <c r="A457" s="1">
         <v>44259</v>
       </c>
+      <c r="B457" s="3">
+        <v>4.2245370370370371E-2</v>
+      </c>
+      <c r="C457" s="3">
+        <v>3.9976851851851854E-2</v>
+      </c>
+      <c r="D457" s="3">
+        <v>3.1377314814814809E-2</v>
+      </c>
       <c r="E457" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.11359953703703704</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D458" sqref="D458"/>
+      <selection pane="bottomLeft" activeCell="D459" sqref="D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7517,9 +7517,15 @@
       <c r="A458" s="1">
         <v>44260</v>
       </c>
+      <c r="B458" s="3">
+        <v>4.8275462962962958E-2</v>
+      </c>
+      <c r="D458" s="3">
+        <v>3.2881944444444443E-2</v>
+      </c>
       <c r="E458" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.11574074074074E-2</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2184,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O460"/>
+  <dimension ref="A1:O467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D459" sqref="D459"/>
+      <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E462" sqref="E462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7434,7 +7434,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E460" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E467" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>
@@ -7542,6 +7542,75 @@
         <v>44262</v>
       </c>
       <c r="E460" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B461" s="3">
+        <v>4.4525462962962968E-2</v>
+      </c>
+      <c r="D461" s="3">
+        <v>3.7870370370370367E-2</v>
+      </c>
+      <c r="E461" s="4">
+        <f t="shared" si="7"/>
+        <v>8.2395833333333335E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>44264</v>
+      </c>
+      <c r="E462" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>44265</v>
+      </c>
+      <c r="E463" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>44266</v>
+      </c>
+      <c r="E464" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>44267</v>
+      </c>
+      <c r="E465" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>44268</v>
+      </c>
+      <c r="E466" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>44269</v>
+      </c>
+      <c r="E467" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E462" sqref="E462"/>
+      <selection pane="bottomLeft" activeCell="D463" sqref="D463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7565,9 +7565,15 @@
       <c r="A462" s="1">
         <v>44264</v>
       </c>
+      <c r="B462" s="3">
+        <v>4.7118055555555559E-2</v>
+      </c>
+      <c r="D462" s="3">
+        <v>4.9340277777777775E-2</v>
+      </c>
       <c r="E462" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.645833333333334E-2</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D463" sqref="D463"/>
+      <selection pane="bottomLeft" activeCell="D464" sqref="D464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7580,9 +7580,15 @@
       <c r="A463" s="1">
         <v>44265</v>
       </c>
+      <c r="B463" s="3">
+        <v>5.1817129629629623E-2</v>
+      </c>
+      <c r="D463" s="3">
+        <v>3.7187499999999998E-2</v>
+      </c>
       <c r="E463" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.9004629629629628E-2</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2184,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O467"/>
+  <dimension ref="A1:O469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D464" sqref="D464"/>
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B467" sqref="B467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7595,36 +7595,68 @@
       <c r="A464" s="1">
         <v>44266</v>
       </c>
+      <c r="B464" s="3">
+        <v>4.8194444444444449E-2</v>
+      </c>
+      <c r="C464" s="3">
+        <v>5.2719907407407403E-2</v>
+      </c>
+      <c r="D464" s="3">
+        <v>8.9085648148148136E-2</v>
+      </c>
       <c r="E464" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>44267</v>
       </c>
+      <c r="B465" s="3">
+        <v>4.3287037037037041E-2</v>
+      </c>
+      <c r="D465" s="3">
+        <v>5.9791666666666667E-2</v>
+      </c>
       <c r="E465" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1030787037037037</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>44268</v>
       </c>
+      <c r="B466" s="3">
+        <v>4.3020833333333335E-2</v>
+      </c>
       <c r="E466" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.3020833333333335E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>44269</v>
       </c>
       <c r="E467" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
+      </c>
+      <c r="I467" s="3">
+        <v>4.1076388888888891E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I468" s="3">
+        <v>4.8009259259259258E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I469" s="4">
+        <f>SUM(I467:I468)</f>
+        <v>8.908564814814815E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2184,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O469"/>
+  <dimension ref="A1:O474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B467" sqref="B467"/>
+      <selection pane="bottomLeft" activeCell="I467" sqref="I467:I470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7644,19 +7644,46 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I467" s="3">
-        <v>4.1076388888888891E-2</v>
-      </c>
+      <c r="I467" s="3"/>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I468" s="3">
-        <v>4.8009259259259258E-2</v>
-      </c>
+      <c r="A468" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I468" s="3"/>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I469" s="4">
-        <f>SUM(I467:I468)</f>
-        <v>8.908564814814815E-2</v>
+      <c r="A469" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B469" s="3">
+        <v>3.8645833333333331E-2</v>
+      </c>
+      <c r="I469" s="4"/>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>44276</v>
       </c>
     </row>
   </sheetData>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,13 +2188,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I467" sqref="I467:I470"/>
+      <selection pane="bottomLeft" activeCell="E467" sqref="E467:E474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7434,7 +7435,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E467" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E474" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>
@@ -7650,6 +7651,10 @@
       <c r="A468" s="1">
         <v>44270</v>
       </c>
+      <c r="E468" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I468" s="3"/>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -7659,31 +7664,73 @@
       <c r="B469" s="3">
         <v>3.8645833333333331E-2</v>
       </c>
+      <c r="D469" s="3">
+        <v>6.548611111111112E-2</v>
+      </c>
+      <c r="E469" s="4">
+        <f t="shared" si="7"/>
+        <v>0.10413194444444446</v>
+      </c>
       <c r="I469" s="4"/>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>44272</v>
       </c>
+      <c r="B470" s="3">
+        <v>6.8159722222222219E-2</v>
+      </c>
+      <c r="D470" s="3">
+        <v>5.1377314814814813E-2</v>
+      </c>
+      <c r="E470" s="4">
+        <f t="shared" si="7"/>
+        <v>0.11953703703703702</v>
+      </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>44273</v>
       </c>
+      <c r="B471" s="3">
+        <v>5.5011574074074067E-2</v>
+      </c>
+      <c r="D471" s="3">
+        <v>4.1180555555555554E-2</v>
+      </c>
+      <c r="E471" s="4">
+        <f t="shared" si="7"/>
+        <v>9.6192129629629614E-2</v>
+      </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>44274</v>
       </c>
+      <c r="B472" s="3">
+        <v>4.2581018518518525E-2</v>
+      </c>
+      <c r="E472" s="4">
+        <f t="shared" si="7"/>
+        <v>4.2581018518518525E-2</v>
+      </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>44275</v>
       </c>
+      <c r="E473" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>44276</v>
+      </c>
+      <c r="E474" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2184,11 +2184,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O474"/>
+  <dimension ref="A1:O485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E467" sqref="E467:E474"/>
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7435,7 +7435,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E474" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E485" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>
@@ -7729,6 +7729,117 @@
         <v>44276</v>
       </c>
       <c r="E474" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B475" s="3">
+        <v>5.0983796296296291E-2</v>
+      </c>
+      <c r="D475" s="3">
+        <v>4.9421296296296297E-2</v>
+      </c>
+      <c r="E475" s="4">
+        <f t="shared" si="7"/>
+        <v>0.10040509259259259</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B476" s="3">
+        <v>4.6805555555555552E-2</v>
+      </c>
+      <c r="E476" s="4">
+        <f t="shared" si="7"/>
+        <v>4.6805555555555552E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>44279</v>
+      </c>
+      <c r="E477" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>44280</v>
+      </c>
+      <c r="E478" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>44281</v>
+      </c>
+      <c r="E479" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>44282</v>
+      </c>
+      <c r="E480" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>44283</v>
+      </c>
+      <c r="E481" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B482" s="3">
+        <v>4.8171296296296295E-2</v>
+      </c>
+      <c r="E482" s="4">
+        <f t="shared" si="7"/>
+        <v>4.8171296296296295E-2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>44285</v>
+      </c>
+      <c r="E483" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>44286</v>
+      </c>
+      <c r="E484" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>44287</v>
+      </c>
+      <c r="E485" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2188,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E485"/>
+      <selection pane="bottomLeft" activeCell="D484" sqref="D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7812,18 +7812,27 @@
       <c r="B482" s="3">
         <v>4.8171296296296295E-2</v>
       </c>
+      <c r="D482" s="3">
+        <v>7.0555555555555552E-2</v>
+      </c>
       <c r="E482" s="4">
         <f t="shared" si="7"/>
-        <v>4.8171296296296295E-2</v>
+        <v>0.11872685185185185</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>44285</v>
       </c>
+      <c r="B483" s="3">
+        <v>5.1956018518518519E-2</v>
+      </c>
+      <c r="D483" s="3">
+        <v>5.6365740740740744E-2</v>
+      </c>
       <c r="E483" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.10832175925925927</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>dia</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      </t>
   </si>
 </sst>
 </file>
@@ -2187,8 +2190,8 @@
   <dimension ref="A1:O485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D484" sqref="D484"/>
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D492" sqref="D492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7839,14 +7842,23 @@
       <c r="A484" s="1">
         <v>44286</v>
       </c>
+      <c r="B484" s="3">
+        <v>4.9814814814814812E-2</v>
+      </c>
+      <c r="D484" s="3">
+        <v>4.5844907407407404E-2</v>
+      </c>
       <c r="E484" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.5659722222222215E-2</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>44287</v>
+      </c>
+      <c r="D485" t="s">
+        <v>8</v>
       </c>
       <c r="E485" s="4">
         <f t="shared" si="7"/>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O485"/>
+  <dimension ref="A1:O494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D492" sqref="D492"/>
+      <selection pane="bottomLeft" activeCell="E488" sqref="E488:E494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,7 +7438,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E485" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E494" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>
@@ -7861,6 +7861,96 @@
         <v>8</v>
       </c>
       <c r="E485" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>44288</v>
+      </c>
+      <c r="E486" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>44289</v>
+      </c>
+      <c r="E487" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>44290</v>
+      </c>
+      <c r="E488" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B489" s="3">
+        <v>3.5983796296296298E-2</v>
+      </c>
+      <c r="C489" s="3">
+        <v>4.4236111111111115E-2</v>
+      </c>
+      <c r="D489" s="3">
+        <v>5.5150462962962964E-2</v>
+      </c>
+      <c r="E489" s="4">
+        <f t="shared" si="7"/>
+        <v>0.13537037037037039</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>44292</v>
+      </c>
+      <c r="E490" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>44293</v>
+      </c>
+      <c r="E491" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>44294</v>
+      </c>
+      <c r="E492" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>44295</v>
+      </c>
+      <c r="E493" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>44296</v>
+      </c>
+      <c r="E494" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E488" sqref="E488:E494"/>
+      <selection pane="bottomLeft" activeCell="D491" sqref="D491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7914,9 +7914,15 @@
       <c r="A490" s="1">
         <v>44292</v>
       </c>
+      <c r="B490" s="3">
+        <v>5.063657407407407E-2</v>
+      </c>
+      <c r="D490" s="3">
+        <v>5.5347222222222221E-2</v>
+      </c>
       <c r="E490" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.10598379629629628</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2190,8 +2190,8 @@
   <dimension ref="A1:O494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D491" sqref="D491"/>
+      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7929,18 +7929,30 @@
       <c r="A491" s="1">
         <v>44293</v>
       </c>
+      <c r="B491" s="3">
+        <v>2.6400462962962962E-2</v>
+      </c>
+      <c r="D491" s="3">
+        <v>4.3784722222222218E-2</v>
+      </c>
       <c r="E491" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.0185185185185184E-2</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44294</v>
       </c>
+      <c r="B492" s="3">
+        <v>4.6782407407407411E-2</v>
+      </c>
+      <c r="D492" s="3">
+        <v>4.9699074074074069E-2</v>
+      </c>
       <c r="E492" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.6481481481481474E-2</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2190,8 +2190,8 @@
   <dimension ref="A1:O494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D493" sqref="D493"/>
+      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7959,9 +7959,12 @@
       <c r="A493" s="1">
         <v>44295</v>
       </c>
+      <c r="B493" s="3">
+        <v>4.65625E-2</v>
+      </c>
       <c r="E493" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.65625E-2</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O494"/>
+  <dimension ref="A1:O500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E494"/>
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E492" sqref="E492:E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,7 +7438,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E494" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E500" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>
@@ -7972,6 +7972,66 @@
         <v>44296</v>
       </c>
       <c r="E494" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>44297</v>
+      </c>
+      <c r="E495" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B496" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D496" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="E496" s="4">
+        <f t="shared" si="7"/>
+        <v>9.0277777777777776E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>44299</v>
+      </c>
+      <c r="E497" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>44300</v>
+      </c>
+      <c r="E498" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>44301</v>
+      </c>
+      <c r="E499" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>44302</v>
+      </c>
+      <c r="E500" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E492" sqref="E492:E500"/>
+      <selection pane="bottomLeft" activeCell="E496" sqref="E496:E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8004,9 +8004,15 @@
       <c r="A497" s="1">
         <v>44299</v>
       </c>
+      <c r="B497" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D497" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
       <c r="E497" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E496" sqref="E496:E500"/>
+      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8019,9 +8019,15 @@
       <c r="A498" s="1">
         <v>44300</v>
       </c>
+      <c r="B498" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D498" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="E498" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
+      <selection pane="bottomLeft" activeCell="D499" sqref="D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8034,9 +8034,15 @@
       <c r="A499" s="1">
         <v>44301</v>
       </c>
+      <c r="B499" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D499" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
       <c r="E499" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D499" sqref="D499"/>
+      <selection pane="bottomLeft" activeCell="D500" sqref="D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8049,9 +8049,15 @@
       <c r="A500" s="1">
         <v>44302</v>
       </c>
+      <c r="B500" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D500" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E500" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O500"/>
+  <dimension ref="A1:O509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D500" sqref="D500"/>
+      <selection pane="bottomLeft" activeCell="E503" sqref="E503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,7 +7438,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E500" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E509" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>
@@ -8058,6 +8058,93 @@
       <c r="E500" s="4">
         <f t="shared" si="7"/>
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>44303</v>
+      </c>
+      <c r="E501" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>44304</v>
+      </c>
+      <c r="E502" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B503" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D503" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="E503" s="4">
+        <f t="shared" si="7"/>
+        <v>9.0277777777777776E-2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>44306</v>
+      </c>
+      <c r="E504" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>44307</v>
+      </c>
+      <c r="E505" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>44308</v>
+      </c>
+      <c r="E506" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>44309</v>
+      </c>
+      <c r="E507" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>44310</v>
+      </c>
+      <c r="E508" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>44311</v>
+      </c>
+      <c r="E509" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E503" sqref="E503"/>
+      <selection pane="bottomLeft" activeCell="D504" sqref="D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8097,9 +8097,15 @@
       <c r="A504" s="1">
         <v>44306</v>
       </c>
+      <c r="B504" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D504" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
       <c r="E504" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O509"/>
+  <dimension ref="A1:O514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D504" sqref="D504"/>
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E503" sqref="E503:E514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,7 +7438,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E509" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E514" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>
@@ -8112,27 +8112,45 @@
       <c r="A505" s="1">
         <v>44307</v>
       </c>
+      <c r="B505" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D505" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E505" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>44308</v>
       </c>
+      <c r="B506" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D506" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E506" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>44309</v>
       </c>
+      <c r="B507" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D507" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E507" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -8149,6 +8167,54 @@
         <v>44311</v>
       </c>
       <c r="E509" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B510" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E510" s="4">
+        <f t="shared" si="7"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>44313</v>
+      </c>
+      <c r="E511" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>44314</v>
+      </c>
+      <c r="E512" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>44315</v>
+      </c>
+      <c r="E513" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>44316</v>
+      </c>
+      <c r="E514" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2190,8 +2190,8 @@
   <dimension ref="A1:O514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E503" sqref="E503:E514"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8187,9 +8187,15 @@
       <c r="A511" s="1">
         <v>44313</v>
       </c>
+      <c r="B511" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D511" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E511" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2190,8 +2190,8 @@
   <dimension ref="A1:O514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B513" sqref="B513:D513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8202,18 +8202,30 @@
       <c r="A512" s="1">
         <v>44314</v>
       </c>
+      <c r="B512" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D512" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E512" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>44315</v>
       </c>
+      <c r="B513" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D513" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E513" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O514"/>
+  <dimension ref="A1:O523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B513" sqref="B513:D513"/>
+      <selection pane="bottomLeft" activeCell="E514" sqref="E514:E523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,7 +7438,7 @@
         <v>44254</v>
       </c>
       <c r="E452" s="4">
-        <f t="shared" ref="E452:E514" si="7">SUM(B452,C452,D452)</f>
+        <f t="shared" ref="E452:E515" si="7">SUM(B452,C452,D452)</f>
         <v>0</v>
       </c>
     </row>
@@ -8220,20 +8220,111 @@
       <c r="B513" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D513" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="D513" s="3"/>
       <c r="E513" s="4">
         <f t="shared" si="7"/>
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>44316</v>
       </c>
+      <c r="B514" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D514" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E514" s="4">
         <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B515" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D515" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E515" s="4">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>44318</v>
+      </c>
+      <c r="E516" s="4">
+        <f t="shared" ref="E516:E523" si="8">SUM(B516,C516,D516)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>44319</v>
+      </c>
+      <c r="E517" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>44320</v>
+      </c>
+      <c r="E518" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E519" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>44322</v>
+      </c>
+      <c r="E520" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>44323</v>
+      </c>
+      <c r="E521" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>44324</v>
+      </c>
+      <c r="E522" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>44325</v>
+      </c>
+      <c r="E523" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E514" sqref="E514:E523"/>
+      <selection pane="bottomLeft" activeCell="D520" sqref="D520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8269,36 +8269,60 @@
       <c r="A517" s="1">
         <v>44319</v>
       </c>
+      <c r="B517" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D517" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E517" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>44320</v>
       </c>
+      <c r="B518" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D518" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E518" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>44321</v>
       </c>
+      <c r="B519" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D519" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E519" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>44322</v>
       </c>
+      <c r="B520" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D520" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E520" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O523"/>
+  <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D520" sqref="D520"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8261,7 +8261,7 @@
         <v>44318</v>
       </c>
       <c r="E516" s="4">
-        <f t="shared" ref="E516:E523" si="8">SUM(B516,C516,D516)</f>
+        <f t="shared" ref="E516:E532" si="8">SUM(B516,C516,D516)</f>
         <v>0</v>
       </c>
     </row>
@@ -8329,9 +8329,15 @@
       <c r="A521" s="1">
         <v>44323</v>
       </c>
+      <c r="B521" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D521" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E521" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -8348,6 +8354,93 @@
         <v>44325</v>
       </c>
       <c r="E523" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B524" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D524" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E524" s="4">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>44327</v>
+      </c>
+      <c r="E525" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>44328</v>
+      </c>
+      <c r="E526" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>44329</v>
+      </c>
+      <c r="E527" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>44330</v>
+      </c>
+      <c r="E528" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>44331</v>
+      </c>
+      <c r="E529" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>44332</v>
+      </c>
+      <c r="E530" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>44333</v>
+      </c>
+      <c r="E531" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>44334</v>
+      </c>
+      <c r="E532" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2190,8 +2190,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D528" sqref="D528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8377,36 +8377,57 @@
       <c r="A525" s="1">
         <v>44327</v>
       </c>
+      <c r="B525" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E525" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>44328</v>
       </c>
+      <c r="B526" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D526" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E526" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>44329</v>
       </c>
+      <c r="B527" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D527" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E527" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>44330</v>
       </c>
+      <c r="B528" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D528" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E528" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O532"/>
+  <dimension ref="A1:O537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D528" sqref="D528"/>
+      <selection pane="bottomLeft" activeCell="E528" sqref="E528:E537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8261,7 +8261,7 @@
         <v>44318</v>
       </c>
       <c r="E516" s="4">
-        <f t="shared" ref="E516:E532" si="8">SUM(B516,C516,D516)</f>
+        <f t="shared" ref="E516:E537" si="8">SUM(B516,C516,D516)</f>
         <v>0</v>
       </c>
     </row>
@@ -8452,9 +8452,15 @@
       <c r="A531" s="1">
         <v>44333</v>
       </c>
+      <c r="B531" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D531" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E531" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
@@ -8462,6 +8468,51 @@
         <v>44334</v>
       </c>
       <c r="E532" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>44335</v>
+      </c>
+      <c r="E533" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>44336</v>
+      </c>
+      <c r="E534" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>44337</v>
+      </c>
+      <c r="E535" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>44338</v>
+      </c>
+      <c r="E536" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>44339</v>
+      </c>
+      <c r="E537" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2190,8 +2190,8 @@
   <dimension ref="A1:O537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E528" sqref="E528:E537"/>
+      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8467,36 +8467,60 @@
       <c r="A532" s="1">
         <v>44334</v>
       </c>
+      <c r="B532" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D532" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E532" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44335</v>
       </c>
+      <c r="B533" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D533" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E533" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44336</v>
       </c>
+      <c r="B534" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D534" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E534" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44337</v>
       </c>
+      <c r="B535" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D535" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E535" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -389,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I19"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O537"/>
+  <dimension ref="A1:O544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E537"/>
+      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E419" sqref="E419:E544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8261,7 +8261,7 @@
         <v>44318</v>
       </c>
       <c r="E516" s="4">
-        <f t="shared" ref="E516:E537" si="8">SUM(B516,C516,D516)</f>
+        <f t="shared" ref="E516:E544" si="8">SUM(B516,C516,D516)</f>
         <v>0</v>
       </c>
     </row>
@@ -8537,6 +8537,75 @@
         <v>44339</v>
       </c>
       <c r="E537" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B538" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D538" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E538" s="4">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>44341</v>
+      </c>
+      <c r="E539" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>44342</v>
+      </c>
+      <c r="E540" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>44343</v>
+      </c>
+      <c r="E541" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>44344</v>
+      </c>
+      <c r="E542" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>44345</v>
+      </c>
+      <c r="E543" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>44346</v>
+      </c>
+      <c r="E544" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2190,8 +2190,8 @@
   <dimension ref="A1:O544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E419" sqref="E419:E544"/>
+      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D542" sqref="D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8560,36 +8560,60 @@
       <c r="A539" s="1">
         <v>44341</v>
       </c>
+      <c r="B539" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D539" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E539" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44342</v>
       </c>
+      <c r="B540" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D540" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E540" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44343</v>
       </c>
+      <c r="B541" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D541" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E541" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44344</v>
       </c>
+      <c r="B542" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D542" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E542" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O544"/>
+  <dimension ref="A1:O551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D542" sqref="D542"/>
+      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E542" sqref="E542:E551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8261,7 +8261,7 @@
         <v>44318</v>
       </c>
       <c r="E516" s="4">
-        <f t="shared" ref="E516:E544" si="8">SUM(B516,C516,D516)</f>
+        <f t="shared" ref="E516:E551" si="8">SUM(B516,C516,D516)</f>
         <v>0</v>
       </c>
     </row>
@@ -8630,6 +8630,75 @@
         <v>44346</v>
       </c>
       <c r="E544" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B545" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D545" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E545" s="4">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>44348</v>
+      </c>
+      <c r="E546" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>44349</v>
+      </c>
+      <c r="E547" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>44350</v>
+      </c>
+      <c r="E548" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>44351</v>
+      </c>
+      <c r="E549" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>44352</v>
+      </c>
+      <c r="E550" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>44353</v>
+      </c>
+      <c r="E551" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O551"/>
+  <dimension ref="A1:O558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E542" sqref="E542:E551"/>
+      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E545" sqref="E545:E558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8261,7 +8261,7 @@
         <v>44318</v>
       </c>
       <c r="E516" s="4">
-        <f t="shared" ref="E516:E551" si="8">SUM(B516,C516,D516)</f>
+        <f t="shared" ref="E516:E558" si="8">SUM(B516,C516,D516)</f>
         <v>0</v>
       </c>
     </row>
@@ -8653,36 +8653,60 @@
       <c r="A546" s="1">
         <v>44348</v>
       </c>
+      <c r="B546" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D546" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E546" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44349</v>
       </c>
+      <c r="B547" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D547" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E547" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>44350</v>
       </c>
+      <c r="B548" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D548" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E548" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>44351</v>
       </c>
+      <c r="B549" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D549" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E549" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
@@ -8699,6 +8723,75 @@
         <v>44353</v>
       </c>
       <c r="E551" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B552" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D552" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E552" s="4">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>44355</v>
+      </c>
+      <c r="E553" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>44356</v>
+      </c>
+      <c r="E554" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>44357</v>
+      </c>
+      <c r="E555" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>44358</v>
+      </c>
+      <c r="E556" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>44359</v>
+      </c>
+      <c r="E557" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>44360</v>
+      </c>
+      <c r="E558" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>

--- a/Horas invertidad de estudio.xlsx
+++ b/Horas invertidad de estudio.xlsx
@@ -2187,11 +2187,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O558"/>
+  <dimension ref="A1:O580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E545" sqref="E545:E558"/>
+      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E554" sqref="E554:E580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8261,7 +8261,7 @@
         <v>44318</v>
       </c>
       <c r="E516" s="4">
-        <f t="shared" ref="E516:E558" si="8">SUM(B516,C516,D516)</f>
+        <f t="shared" ref="E516:E579" si="8">SUM(B516,C516,D516)</f>
         <v>0</v>
       </c>
     </row>
@@ -8746,36 +8746,48 @@
       <c r="A553" s="1">
         <v>44355</v>
       </c>
+      <c r="B553" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E553" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>44356</v>
       </c>
+      <c r="B554" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E554" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>44357</v>
       </c>
+      <c r="B555" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E555" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>44358</v>
       </c>
+      <c r="B556" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E556" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -8793,6 +8805,249 @@
       </c>
       <c r="E558" s="4">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B559" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E559" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B560" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E560" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B561" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E561" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B562" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E562" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B563" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E563" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>44366</v>
+      </c>
+      <c r="E564" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>44367</v>
+      </c>
+      <c r="E565" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B566" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E566" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B567" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E567" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B568" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E568" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B569" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E569" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B570" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E570" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>44373</v>
+      </c>
+      <c r="E571" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>44374</v>
+      </c>
+      <c r="E572" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B573" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E573" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B574" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E574" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B575" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E575" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B576" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E576" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B577" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E577" s="4">
+        <f t="shared" si="8"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>44380</v>
+      </c>
+      <c r="E578" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>44381</v>
+      </c>
+      <c r="E579" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>44382</v>
+      </c>
+      <c r="E580" s="4">
+        <f t="shared" ref="E580" si="9">SUM(B580,C580,D580)</f>
         <v>0</v>
       </c>
     </row>
